--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_292__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_292__Reeval_Sobol_Modell_1.2.xlsx
@@ -6118,40 +6118,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93.65145874023438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0008544921875</c:v>
+                  <c:v>21.00091743469238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.78200531005859</c:v>
+                  <c:v>93.78199768066406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.03746032714844</c:v>
+                  <c:v>40.03743743896484</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.08434295654297</c:v>
+                  <c:v>95.08432769775391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.55393505096436</c:v>
+                  <c:v>14.55394554138184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.34305000305176</c:v>
+                  <c:v>20.34306144714355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.99181365966797</c:v>
+                  <c:v>38.9918327331543</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.96787261962891</c:v>
+                  <c:v>94.96788024902344</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>37.49620819091797</c:v>
@@ -6160,13 +6160,13 @@
                   <c:v>93.422119140625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41.55556488037109</c:v>
+                  <c:v>41.5555534362793</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.6445199847221375</c:v>
+                  <c:v>0.6445229053497314</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>93.04405975341797</c:v>
@@ -6178,127 +6178,127 @@
                   <c:v>0.5029176473617554</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93.73641967773438</c:v>
+                  <c:v>93.73642730712891</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>96.03219604492188</c:v>
+                  <c:v>96.03220367431641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94.03112030029297</c:v>
+                  <c:v>94.03110504150391</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93.97315979003906</c:v>
+                  <c:v>93.97316741943359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>90.66002655029297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>84.15446472167969</c:v>
+                  <c:v>84.15447235107422</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>65.10123443603516</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.488373517990112</c:v>
+                  <c:v>1.488370656967163</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.98867797851562</c:v>
+                  <c:v>45.98866653442383</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>96.19685363769531</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38.52308654785156</c:v>
+                  <c:v>38.52309799194336</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>94.62966156005859</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>53.62441635131836</c:v>
+                  <c:v>53.62440872192383</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>82.72161865234375</c:v>
+                  <c:v>82.72162628173828</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>58.97555923461914</c:v>
+                  <c:v>58.97556304931641</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5990193486213684</c:v>
+                  <c:v>0.5990171432495117</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.7086884379386902</c:v>
+                  <c:v>0.7086862325668335</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>93.81997680664062</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7209374308586121</c:v>
+                  <c:v>0.7209389209747314</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>93.54097747802734</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43.86428833007812</c:v>
+                  <c:v>43.86429214477539</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>90.54684448242188</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.566722393035889</c:v>
+                  <c:v>6.566710948944092</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14.44517803192139</c:v>
+                  <c:v>14.44518661499023</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>40.89823150634766</c:v>
+                  <c:v>40.89824295043945</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>84.45773315429688</c:v>
+                  <c:v>84.45774841308594</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>34.35797882080078</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>90.70806121826172</c:v>
+                  <c:v>90.70803833007812</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.5694651007652283</c:v>
@@ -6307,43 +6307,43 @@
                   <c:v>95.38948059082031</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.64436340332031</c:v>
+                  <c:v>20.64439010620117</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>93.93479156494141</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>39.15168762207031</c:v>
+                  <c:v>39.15167617797852</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>93.1597900390625</c:v>
+                  <c:v>93.15980529785156</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>96.40650939941406</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>92.22174835205078</c:v>
+                  <c:v>92.22177124023438</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>93.83042144775391</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.797160148620605</c:v>
+                  <c:v>1.797163844108582</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>95.50910186767578</c:v>
+                  <c:v>95.50907897949219</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50.74215698242188</c:v>
+                  <c:v>50.74216461181641</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>96.04960632324219</c:v>
@@ -6352,22 +6352,22 @@
                   <c:v>94.09279632568359</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>91.31935119628906</c:v>
+                  <c:v>91.31936645507812</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>96.24176788330078</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.6512835025787354</c:v>
+                  <c:v>0.6512849926948547</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>75.79840087890625</c:v>
+                  <c:v>75.79843139648438</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>92.2266845703125</c:v>
@@ -6376,34 +6376,34 @@
                   <c:v>93.17162322998047</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>91.81079864501953</c:v>
+                  <c:v>91.810791015625</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>94.67212677001953</c:v>
+                  <c:v>94.67210388183594</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>30.88821411132812</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93.72535705566406</c:v>
+                  <c:v>93.725341796875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>39.16787719726562</c:v>
+                  <c:v>39.16789245605469</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.85244655609131</c:v>
+                  <c:v>14.85243511199951</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>90.77484893798828</c:v>
@@ -6412,19 +6412,19 @@
                   <c:v>93.63872528076172</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>92.99287414550781</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.981538712978363</c:v>
+                  <c:v>0.9815402030944824</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11.32725811004639</c:v>
+                  <c:v>11.32722854614258</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>77.23116302490234</c:v>
+                  <c:v>77.23117065429688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.0008544921875</v>
+        <v>21.00091743469238</v>
       </c>
       <c r="G4">
         <v>106</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
       <c r="G5">
         <v>106</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>93.78200531005859</v>
+        <v>93.78199768066406</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>40.03746032714844</v>
+        <v>40.03743743896484</v>
       </c>
       <c r="G7">
         <v>106</v>
@@ -7311,7 +7311,7 @@
         <v>98.1893</v>
       </c>
       <c r="F8">
-        <v>95.08434295654297</v>
+        <v>95.08432769775391</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>14.55393505096436</v>
+        <v>14.55394554138184</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>20.34305000305176</v>
+        <v>20.34306144714355</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>38.99181365966797</v>
+        <v>38.9918327331543</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>84.36620000000001</v>
       </c>
       <c r="F13">
-        <v>94.96787261962891</v>
+        <v>94.96788024902344</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>26.9346</v>
       </c>
       <c r="F17">
-        <v>41.55556488037109</v>
+        <v>41.5555534362793</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6445199847221375</v>
+        <v>0.6445229053497314</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>91.50530000000001</v>
       </c>
       <c r="F22">
-        <v>93.73641967773438</v>
+        <v>93.73642730712891</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>96.03219604492188</v>
+        <v>96.03220367431641</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>93.3062</v>
       </c>
       <c r="F24">
-        <v>94.03112030029297</v>
+        <v>94.03110504150391</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>92.36799999999999</v>
       </c>
       <c r="F25">
-        <v>93.97315979003906</v>
+        <v>93.97316741943359</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>84.15446472167969</v>
+        <v>84.15447235107422</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.488373517990112</v>
+        <v>1.488370656967163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>45.98867797851562</v>
+        <v>45.98866653442383</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>38.52308654785156</v>
+        <v>38.52309799194336</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>53.62441635131836</v>
+        <v>53.62440872192383</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>87.6232</v>
       </c>
       <c r="F43">
-        <v>82.72161865234375</v>
+        <v>82.72162628173828</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>58.97555923461914</v>
+        <v>58.97556304931641</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.5990193486213684</v>
+        <v>0.5990171432495117</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.7086884379386902</v>
+        <v>0.7086862325668335</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.7209374308586121</v>
+        <v>0.7209389209747314</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>43.86428833007812</v>
+        <v>43.86429214477539</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>6.566722393035889</v>
+        <v>6.566710948944092</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>14.44517803192139</v>
+        <v>14.44518661499023</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>40.89823150634766</v>
+        <v>40.89824295043945</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>84.45773315429688</v>
+        <v>84.45774841308594</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>90.70806121826172</v>
+        <v>90.70803833007812</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>20.64436340332031</v>
+        <v>20.64439010620117</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>39.15168762207031</v>
+        <v>39.15167617797852</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>94.7551</v>
       </c>
       <c r="F71">
-        <v>93.1597900390625</v>
+        <v>93.15980529785156</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>92.22174835205078</v>
+        <v>92.22177124023438</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.797160148620605</v>
+        <v>1.797163844108582</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>95.50910186767578</v>
+        <v>95.50907897949219</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>50.74215698242188</v>
+        <v>50.74216461181641</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>91.31935119628906</v>
+        <v>91.31936645507812</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.6512835025787354</v>
+        <v>0.6512849926948547</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>75.79840087890625</v>
+        <v>75.79843139648438</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>91.271</v>
       </c>
       <c r="F91">
-        <v>91.81079864501953</v>
+        <v>91.810791015625</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>94.67212677001953</v>
+        <v>94.67210388183594</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>93.72535705566406</v>
+        <v>93.725341796875</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>39.16787719726562</v>
+        <v>39.16789245605469</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>14.85244655609131</v>
+        <v>14.85243511199951</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0.981538712978363</v>
+        <v>0.9815402030944824</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>11.32725811004639</v>
+        <v>11.32722854614258</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>77.23116302490234</v>
+        <v>77.23117065429688</v>
       </c>
     </row>
     <row r="105" spans="1:6">
